--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gpi1-Amfr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.91073733333334</v>
+        <v>19.71326633333333</v>
       </c>
       <c r="H2">
-        <v>131.732212</v>
+        <v>59.139799</v>
       </c>
       <c r="I2">
-        <v>0.4010337406460291</v>
+        <v>0.2311148647321797</v>
       </c>
       <c r="J2">
-        <v>0.4010337406460291</v>
+        <v>0.2311148647321797</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.529461</v>
+        <v>10.44283133333333</v>
       </c>
       <c r="N2">
-        <v>67.58838299999999</v>
+        <v>31.328494</v>
       </c>
       <c r="O2">
-        <v>0.3889626001872417</v>
+        <v>0.2278338596647878</v>
       </c>
       <c r="P2">
-        <v>0.3889626001872417</v>
+        <v>0.2278338596647878</v>
       </c>
       <c r="Q2">
-        <v>989.2852442325773</v>
+        <v>205.8623153480784</v>
       </c>
       <c r="R2">
-        <v>8903.567198093195</v>
+        <v>1852.760838132706</v>
       </c>
       <c r="S2">
-        <v>0.1559871265244954</v>
+        <v>0.05265579165783784</v>
       </c>
       <c r="T2">
-        <v>0.1559871265244954</v>
+        <v>0.05265579165783785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.91073733333334</v>
+        <v>19.71326633333333</v>
       </c>
       <c r="H3">
-        <v>131.732212</v>
+        <v>59.139799</v>
       </c>
       <c r="I3">
-        <v>0.4010337406460291</v>
+        <v>0.2311148647321797</v>
       </c>
       <c r="J3">
-        <v>0.4010337406460291</v>
+        <v>0.2311148647321797</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>69.58111700000001</v>
       </c>
       <c r="O3">
-        <v>0.4004305324518962</v>
+        <v>0.5060228699757219</v>
       </c>
       <c r="P3">
-        <v>0.4004305324518962</v>
+        <v>0.5060228699757219</v>
       </c>
       <c r="Q3">
-        <v>1018.452717315645</v>
+        <v>457.2236970639426</v>
       </c>
       <c r="R3">
-        <v>9166.074455840806</v>
+        <v>4115.013273575483</v>
       </c>
       <c r="S3">
-        <v>0.1605861542980651</v>
+        <v>0.1169494071458283</v>
       </c>
       <c r="T3">
-        <v>0.1605861542980651</v>
+        <v>0.1169494071458283</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>43.91073733333334</v>
+        <v>19.71326633333333</v>
       </c>
       <c r="H4">
-        <v>131.732212</v>
+        <v>59.139799</v>
       </c>
       <c r="I4">
-        <v>0.4010337406460291</v>
+        <v>0.2311148647321797</v>
       </c>
       <c r="J4">
-        <v>0.4010337406460291</v>
+        <v>0.2311148647321797</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>36.596263</v>
       </c>
       <c r="O4">
-        <v>0.2106068673608621</v>
+        <v>0.2661432703594902</v>
       </c>
       <c r="P4">
-        <v>0.2106068673608621</v>
+        <v>0.2661432703594903</v>
       </c>
       <c r="Q4">
-        <v>535.6562973248618</v>
+        <v>240.4772931079041</v>
       </c>
       <c r="R4">
-        <v>4820.906675923756</v>
+        <v>2164.295637971137</v>
       </c>
       <c r="S4">
-        <v>0.08446045982346861</v>
+        <v>0.06150966592851351</v>
       </c>
       <c r="T4">
-        <v>0.08446045982346863</v>
+        <v>0.06150966592851351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>91.96567999999999</v>
       </c>
       <c r="I5">
-        <v>0.2799720744190927</v>
+        <v>0.3593964817703036</v>
       </c>
       <c r="J5">
-        <v>0.2799720744190927</v>
+        <v>0.3593964817703036</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.529461</v>
+        <v>10.44283133333333</v>
       </c>
       <c r="N5">
-        <v>67.58838299999999</v>
+        <v>31.328494</v>
       </c>
       <c r="O5">
-        <v>0.3889626001872417</v>
+        <v>0.2278338596647878</v>
       </c>
       <c r="P5">
-        <v>0.3889626001872417</v>
+        <v>0.2278338596647878</v>
       </c>
       <c r="Q5">
-        <v>690.6457336328266</v>
+        <v>320.1273615651021</v>
       </c>
       <c r="R5">
-        <v>6215.811602695439</v>
+        <v>2881.14625408592</v>
       </c>
       <c r="S5">
-        <v>0.1088986660458662</v>
+        <v>0.08188268759167383</v>
       </c>
       <c r="T5">
-        <v>0.1088986660458662</v>
+        <v>0.08188268759167384</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>91.96567999999999</v>
       </c>
       <c r="I6">
-        <v>0.2799720744190927</v>
+        <v>0.3593964817703036</v>
       </c>
       <c r="J6">
-        <v>0.2799720744190927</v>
+        <v>0.3593964817703036</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>69.58111700000001</v>
       </c>
       <c r="O6">
-        <v>0.4004305324518962</v>
+        <v>0.5060228699757219</v>
       </c>
       <c r="P6">
-        <v>0.4004305324518962</v>
+        <v>0.5060228699757219</v>
       </c>
       <c r="Q6">
         <v>711.0083044516178</v>
@@ -818,10 +818,10 @@
         <v>6399.07474006456</v>
       </c>
       <c r="S6">
-        <v>0.1121093668312992</v>
+        <v>0.1818628391645863</v>
       </c>
       <c r="T6">
-        <v>0.1121093668312992</v>
+        <v>0.1818628391645863</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>91.96567999999999</v>
       </c>
       <c r="I7">
-        <v>0.2799720744190927</v>
+        <v>0.3593964817703036</v>
       </c>
       <c r="J7">
-        <v>0.2799720744190927</v>
+        <v>0.3593964817703036</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>36.596263</v>
       </c>
       <c r="O7">
-        <v>0.2106068673608621</v>
+        <v>0.2661432703594902</v>
       </c>
       <c r="P7">
-        <v>0.2106068673608621</v>
+        <v>0.2661432703594903</v>
       </c>
       <c r="Q7">
         <v>373.9555791393155</v>
@@ -880,10 +880,10 @@
         <v>3365.60021225384</v>
       </c>
       <c r="S7">
-        <v>0.05896404154192727</v>
+        <v>0.09565095501404351</v>
       </c>
       <c r="T7">
-        <v>0.05896404154192728</v>
+        <v>0.09565095501404354</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>104.783726</v>
       </c>
       <c r="I8">
-        <v>0.3189941849348781</v>
+        <v>0.4094886534975166</v>
       </c>
       <c r="J8">
-        <v>0.3189941849348781</v>
+        <v>0.4094886534975166</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.529461</v>
+        <v>10.44283133333333</v>
       </c>
       <c r="N8">
-        <v>67.58838299999999</v>
+        <v>31.328494</v>
       </c>
       <c r="O8">
-        <v>0.3889626001872417</v>
+        <v>0.2278338596647878</v>
       </c>
       <c r="P8">
-        <v>0.3889626001872417</v>
+        <v>0.2278338596647878</v>
       </c>
       <c r="Q8">
-        <v>786.9069561172286</v>
+        <v>364.7462590320715</v>
       </c>
       <c r="R8">
-        <v>7082.162605055058</v>
+        <v>3282.716331288644</v>
       </c>
       <c r="S8">
-        <v>0.12407680761688</v>
+        <v>0.09329538041527612</v>
       </c>
       <c r="T8">
-        <v>0.12407680761688</v>
+        <v>0.09329538041527613</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>104.783726</v>
       </c>
       <c r="I9">
-        <v>0.3189941849348781</v>
+        <v>0.4094886534975166</v>
       </c>
       <c r="J9">
-        <v>0.3189941849348781</v>
+        <v>0.4094886534975166</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>69.58111700000001</v>
       </c>
       <c r="O9">
-        <v>0.4004305324518962</v>
+        <v>0.5060228699757219</v>
       </c>
       <c r="P9">
-        <v>0.4004305324518962</v>
+        <v>0.5060228699757219</v>
       </c>
       <c r="Q9">
         <v>810.1076331668826</v>
@@ -1004,10 +1004,10 @@
         <v>7290.968698501943</v>
       </c>
       <c r="S9">
-        <v>0.1277350113225319</v>
+        <v>0.2072106236653073</v>
       </c>
       <c r="T9">
-        <v>0.1277350113225319</v>
+        <v>0.2072106236653073</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>104.783726</v>
       </c>
       <c r="I10">
-        <v>0.3189941849348781</v>
+        <v>0.4094886534975166</v>
       </c>
       <c r="J10">
-        <v>0.3189941849348781</v>
+        <v>0.4094886534975166</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>36.596263</v>
       </c>
       <c r="O10">
-        <v>0.2106068673608621</v>
+        <v>0.2661432703594902</v>
       </c>
       <c r="P10">
-        <v>0.2106068673608621</v>
+        <v>0.2661432703594903</v>
       </c>
       <c r="Q10">
         <v>426.0769772017709</v>
@@ -1066,10 +1066,10 @@
         <v>3834.692794815938</v>
       </c>
       <c r="S10">
-        <v>0.06718236599546619</v>
+        <v>0.1089826494169332</v>
       </c>
       <c r="T10">
-        <v>0.0671823659954662</v>
+        <v>0.1089826494169332</v>
       </c>
     </row>
   </sheetData>
